--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1883985.711168793</v>
+        <v>-1886573.222374371</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>411.0904450475561</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>296.3356618821742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>48.08148421406818</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>113.0324549812898</v>
+        <v>113.0324549812899</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>204.6565392873045</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>150.0365444703099</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>317.0318846569962</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>135.089742000015</v>
       </c>
       <c r="H3" t="n">
-        <v>90.46872094984357</v>
+        <v>90.46872094984359</v>
       </c>
       <c r="I3" t="n">
-        <v>11.79954938173972</v>
+        <v>11.79954938173975</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>129.8202859453569</v>
+        <v>129.820285945357</v>
       </c>
       <c r="T3" t="n">
         <v>191.0804331905373</v>
@@ -820,22 +820,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.1014899708501</v>
+        <v>33.50063032951576</v>
       </c>
       <c r="H4" t="n">
-        <v>145.4278941339733</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.62837588899009</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>92.33507763978305</v>
+        <v>92.33507763978308</v>
       </c>
       <c r="S4" t="n">
-        <v>191.0879511638283</v>
+        <v>191.0879511638284</v>
       </c>
       <c r="T4" t="n">
         <v>219.8723165903172</v>
       </c>
       <c r="U4" t="n">
-        <v>144.1019613895219</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>88.43680406484665</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>182.3878718016867</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>75.62077850565252</v>
+        <v>135.9173583898534</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>82.60441573043171</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>270.6845954703683</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1187,7 +1187,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1348,16 +1348,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>34.77625773432531</v>
       </c>
       <c r="W10" t="n">
-        <v>50.69692056028399</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,13 +1370,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710078</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722626</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784705</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>139.1584054594695</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>135.3135037226521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695618</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>104.4564809702495</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>126.9420388308268</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1816,16 +1816,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>25.07757910977625</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206838</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766851</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,13 +2248,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922689</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>223.8290352905954</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="24">
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>4.019807611471954</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>70.04554881124335</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695614</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>20.889948251416</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,7 +2953,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261731</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545295</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3029,13 +3029,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.010065354185</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,10 +3664,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,7 +3913,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
         <v>56.98118882652581</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2001.642904132897</v>
+        <v>1552.764853912967</v>
       </c>
       <c r="C2" t="n">
-        <v>1632.680387192485</v>
+        <v>1183.802336972555</v>
       </c>
       <c r="D2" t="n">
-        <v>1274.414688585735</v>
+        <v>825.5366383658047</v>
       </c>
       <c r="E2" t="n">
-        <v>888.6264359874906</v>
+        <v>825.5366383658047</v>
       </c>
       <c r="F2" t="n">
-        <v>477.640531197883</v>
+        <v>825.5366383658047</v>
       </c>
       <c r="G2" t="n">
-        <v>62.39765741247277</v>
+        <v>410.2937645803942</v>
       </c>
       <c r="H2" t="n">
-        <v>62.39765741247277</v>
+        <v>110.9648131842588</v>
       </c>
       <c r="I2" t="n">
-        <v>62.39765741247277</v>
+        <v>62.39765741247271</v>
       </c>
       <c r="J2" t="n">
-        <v>237.1001391730315</v>
+        <v>237.100139173031</v>
       </c>
       <c r="K2" t="n">
-        <v>549.6723906315701</v>
+        <v>549.672390631569</v>
       </c>
       <c r="L2" t="n">
-        <v>974.3476699529747</v>
+        <v>974.3476699529738</v>
       </c>
       <c r="M2" t="n">
-        <v>1478.550181808271</v>
+        <v>1478.550181808269</v>
       </c>
       <c r="N2" t="n">
-        <v>1995.525025811715</v>
+        <v>1995.525025811713</v>
       </c>
       <c r="O2" t="n">
-        <v>2470.354450076071</v>
+        <v>2470.354450076069</v>
       </c>
       <c r="P2" t="n">
-        <v>2841.109377259759</v>
+        <v>2841.109377259756</v>
       </c>
       <c r="Q2" t="n">
-        <v>3071.358140510238</v>
+        <v>3071.358140510236</v>
       </c>
       <c r="R2" t="n">
-        <v>3119.882870623638</v>
+        <v>3119.882870623635</v>
       </c>
       <c r="S2" t="n">
-        <v>3005.70867367284</v>
+        <v>3005.708673672837</v>
       </c>
       <c r="T2" t="n">
-        <v>3005.70867367284</v>
+        <v>2798.984896614954</v>
       </c>
       <c r="U2" t="n">
-        <v>3005.70867367284</v>
+        <v>2647.432831493429</v>
       </c>
       <c r="V2" t="n">
-        <v>2674.645786329269</v>
+        <v>2316.369944149858</v>
       </c>
       <c r="W2" t="n">
-        <v>2321.877131059155</v>
+        <v>2316.369944149858</v>
       </c>
       <c r="X2" t="n">
-        <v>2001.642904132897</v>
+        <v>1942.904185888779</v>
       </c>
       <c r="Y2" t="n">
-        <v>2001.642904132897</v>
+        <v>1552.764853912967</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1494.450283274068</v>
+        <v>931.3126773451369</v>
       </c>
       <c r="C3" t="n">
-        <v>1319.997253992941</v>
+        <v>756.8596480640099</v>
       </c>
       <c r="D3" t="n">
-        <v>1171.06284433169</v>
+        <v>607.9252384027586</v>
       </c>
       <c r="E3" t="n">
-        <v>1011.825389326234</v>
+        <v>448.6877833973032</v>
       </c>
       <c r="F3" t="n">
-        <v>865.2908313531192</v>
+        <v>302.1532254241882</v>
       </c>
       <c r="G3" t="n">
-        <v>728.8365465046193</v>
+        <v>165.6989405756882</v>
       </c>
       <c r="H3" t="n">
-        <v>637.4540000906359</v>
+        <v>74.31639416170478</v>
       </c>
       <c r="I3" t="n">
-        <v>625.5352633414038</v>
+        <v>62.39765741247271</v>
       </c>
       <c r="J3" t="n">
-        <v>710.7690176891839</v>
+        <v>147.6314117602527</v>
       </c>
       <c r="K3" t="n">
-        <v>1068.312822670918</v>
+        <v>371.4642984981858</v>
       </c>
       <c r="L3" t="n">
-        <v>1415.606302739112</v>
+        <v>718.7577785663797</v>
       </c>
       <c r="M3" t="n">
-        <v>1840.238281375767</v>
+        <v>1143.389757203035</v>
       </c>
       <c r="N3" t="n">
-        <v>2290.517649870796</v>
+        <v>1593.669125698063</v>
       </c>
       <c r="O3" t="n">
-        <v>2680.215507629991</v>
+        <v>1983.366983457258</v>
       </c>
       <c r="P3" t="n">
-        <v>2973.649328608491</v>
+        <v>2276.800804435758</v>
       </c>
       <c r="Q3" t="n">
-        <v>3119.882870623638</v>
+        <v>2517.369078408912</v>
       </c>
       <c r="R3" t="n">
-        <v>3119.882870623638</v>
+        <v>2556.745264694707</v>
       </c>
       <c r="S3" t="n">
-        <v>2988.751268658631</v>
+        <v>2425.6136627297</v>
       </c>
       <c r="T3" t="n">
-        <v>2795.740730082331</v>
+        <v>2232.603124153399</v>
       </c>
       <c r="U3" t="n">
-        <v>2567.666884224567</v>
+        <v>2004.529278295636</v>
       </c>
       <c r="V3" t="n">
-        <v>2332.514775992825</v>
+        <v>1769.377170063893</v>
       </c>
       <c r="W3" t="n">
-        <v>2078.277419264623</v>
+        <v>1515.139813335692</v>
       </c>
       <c r="X3" t="n">
-        <v>1870.42591905909</v>
+        <v>1307.288313130159</v>
       </c>
       <c r="Y3" t="n">
-        <v>1662.665620294136</v>
+        <v>1099.528014365205</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2063.505153131232</v>
+        <v>1981.073138990304</v>
       </c>
       <c r="C4" t="n">
-        <v>1894.568970203325</v>
+        <v>1812.136956062396</v>
       </c>
       <c r="D4" t="n">
-        <v>1894.568970203325</v>
+        <v>1662.020316650061</v>
       </c>
       <c r="E4" t="n">
-        <v>1894.568970203325</v>
+        <v>1514.107223067668</v>
       </c>
       <c r="F4" t="n">
-        <v>1747.679022705414</v>
+        <v>1367.217275569757</v>
       </c>
       <c r="G4" t="n">
-        <v>1579.899739906576</v>
+        <v>1333.378255034893</v>
       </c>
       <c r="H4" t="n">
-        <v>1433.002877144987</v>
+        <v>1333.378255034893</v>
       </c>
       <c r="I4" t="n">
-        <v>1333.378255034896</v>
+        <v>1333.378255034893</v>
       </c>
       <c r="J4" t="n">
-        <v>1373.203697426283</v>
+        <v>1373.203697426281</v>
       </c>
       <c r="K4" t="n">
-        <v>1568.485969881409</v>
+        <v>1568.485969881407</v>
       </c>
       <c r="L4" t="n">
-        <v>1873.906479893692</v>
+        <v>1873.90647989369</v>
       </c>
       <c r="M4" t="n">
-        <v>2206.318707680742</v>
+        <v>2206.31870768074</v>
       </c>
       <c r="N4" t="n">
-        <v>2536.261532090731</v>
+        <v>2536.261532090728</v>
       </c>
       <c r="O4" t="n">
-        <v>2825.000837712487</v>
+        <v>2825.000837712485</v>
       </c>
       <c r="P4" t="n">
-        <v>3048.546512699444</v>
+        <v>3048.546512699441</v>
       </c>
       <c r="Q4" t="n">
-        <v>3119.882870623638</v>
+        <v>3119.882870623635</v>
       </c>
       <c r="R4" t="n">
-        <v>3026.615115431938</v>
+        <v>3026.615115431935</v>
       </c>
       <c r="S4" t="n">
-        <v>2833.596982943222</v>
+        <v>2833.59698294322</v>
       </c>
       <c r="T4" t="n">
-        <v>2611.503733862094</v>
+        <v>2611.50373386209</v>
       </c>
       <c r="U4" t="n">
-        <v>2465.946197105001</v>
+        <v>2611.50373386209</v>
       </c>
       <c r="V4" t="n">
-        <v>2465.946197105001</v>
+        <v>2611.50373386209</v>
       </c>
       <c r="W4" t="n">
-        <v>2465.946197105001</v>
+        <v>2611.50373386209</v>
       </c>
       <c r="X4" t="n">
-        <v>2465.946197105001</v>
+        <v>2383.514182964073</v>
       </c>
       <c r="Y4" t="n">
-        <v>2245.153617961471</v>
+        <v>2162.721603820543</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1458.811090838974</v>
+        <v>1582.86133602681</v>
       </c>
       <c r="C5" t="n">
-        <v>1458.811090838974</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D5" t="n">
-        <v>1100.545392232223</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>714.757139633979</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>303.7712348443715</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>292.739188729772</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410101</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410101</v>
+        <v>2788.565186649823</v>
       </c>
       <c r="W5" t="n">
-        <v>2609.016021139987</v>
+        <v>2435.796531379709</v>
       </c>
       <c r="X5" t="n">
-        <v>2235.550262878907</v>
+        <v>2062.330773118629</v>
       </c>
       <c r="Y5" t="n">
-        <v>1845.410930903096</v>
+        <v>1672.191441142817</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>409.1586012949293</v>
+        <v>785.680167749271</v>
       </c>
       <c r="C7" t="n">
-        <v>240.2224183670224</v>
+        <v>616.7439848213642</v>
       </c>
       <c r="D7" t="n">
-        <v>240.2224183670224</v>
+        <v>616.7439848213642</v>
       </c>
       <c r="E7" t="n">
-        <v>240.2224183670224</v>
+        <v>468.830891238971</v>
       </c>
       <c r="F7" t="n">
-        <v>240.2224183670224</v>
+        <v>468.830891238971</v>
       </c>
       <c r="G7" t="n">
-        <v>240.2224183670224</v>
+        <v>301.12805461369</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>1416.110762621058</v>
       </c>
       <c r="X7" t="n">
-        <v>590.8070661251691</v>
+        <v>1188.121211723041</v>
       </c>
       <c r="Y7" t="n">
-        <v>590.8070661251691</v>
+        <v>967.3286325795108</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1311.909787855437</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="C8" t="n">
-        <v>942.9472709150257</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="D8" t="n">
-        <v>584.6815723082752</v>
+        <v>1593.774406038972</v>
       </c>
       <c r="E8" t="n">
-        <v>198.893319710031</v>
+        <v>1207.986153440728</v>
       </c>
       <c r="F8" t="n">
-        <v>191.9478189608275</v>
+        <v>797.0002486511205</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>381.927798496117</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4805,7 +4805,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4835,19 +4835,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="Y8" t="n">
-        <v>1698.509627919559</v>
+        <v>1952.040104645723</v>
       </c>
     </row>
     <row r="9">
@@ -4872,19 +4872,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>647.3667606649364</v>
+        <v>553.2677753977071</v>
       </c>
       <c r="C10" t="n">
-        <v>478.4305777370295</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D10" t="n">
-        <v>478.4305777370295</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1291.467075476215</v>
       </c>
       <c r="W10" t="n">
-        <v>829.0152254951761</v>
+        <v>1002.049905439255</v>
       </c>
       <c r="X10" t="n">
-        <v>829.0152254951761</v>
+        <v>774.0603545412372</v>
       </c>
       <c r="Y10" t="n">
-        <v>829.0152254951761</v>
+        <v>553.2677753977071</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,28 +5036,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
@@ -5072,13 +5072,13 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5127,7 +5127,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
         <v>1896.176478190824</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>779.6143379232836</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232836</v>
+        <v>929.7309773356188</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232831</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>631.70124434089</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429796</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578601</v>
@@ -5200,7 +5200,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
         <v>826.1405381797745</v>
@@ -5209,7 +5209,7 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
         <v>2035.089393279803</v>
@@ -5221,28 +5221,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1797.722346028743</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138413</v>
+        <v>1280.315625093765</v>
       </c>
       <c r="Y13" t="n">
-        <v>779.6143379232836</v>
+        <v>1280.315625093765</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5273,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,10 +5288,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
@@ -5300,7 +5300,7 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438171</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>1057.955258982919</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356193</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429802</v>
@@ -5428,25 +5428,25 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
         <v>2035.089393279803</v>
@@ -5455,7 +5455,7 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2197.062545487567</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1942.37805728168</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W16" t="n">
-        <v>1652.96088724472</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="X16" t="n">
-        <v>1424.971336346702</v>
+        <v>1460.396302956689</v>
       </c>
       <c r="Y16" t="n">
-        <v>1204.178757203172</v>
+        <v>1239.603723813159</v>
       </c>
     </row>
     <row r="17">
@@ -5504,58 +5504,58 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>808.8888553856859</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>639.952672457779</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>489.8360330454432</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>990.5373202159257</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5741,58 +5741,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192508</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111707</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,22 +5829,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400705</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797189</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648818</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138404</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703103</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,13 +5999,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6075,19 +6075,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.652278938886</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>576.8388927589092</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C25" t="n">
-        <v>407.9027098310023</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D25" t="n">
-        <v>407.9027098310023</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2442.902671851501</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2260.047837506405</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2040.446372529346</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U25" t="n">
-        <v>1751.371145873544</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V25" t="n">
-        <v>1496.686657667657</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W25" t="n">
-        <v>1207.269487630697</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X25" t="n">
-        <v>979.2799367326793</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y25" t="n">
-        <v>758.4873575891489</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="26">
@@ -6206,10 +6206,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6218,37 +6218,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6364,31 +6364,31 @@
         <v>344.9174178121646</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121646</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E28" t="n">
-        <v>197.0043242297714</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F28" t="n">
-        <v>197.0043242297714</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,37 +6473,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.793114229131</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6643,25 +6643,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y31" t="n">
         <v>1084.076049400516</v>
@@ -6680,7 +6680,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6692,16 +6692,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
@@ -6713,34 +6713,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D34" t="n">
         <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6886,7 +6886,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
         <v>1978.840049838285</v>
@@ -6898,7 +6898,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D37" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F37" t="n">
-        <v>411.221455958012</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954145</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380723</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979285</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382517</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
         <v>656.9646031150021</v>
@@ -7318,46 +7318,46 @@
         <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345479</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954145</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380723</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311319</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7366,16 +7366,16 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,10 +7421,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273905</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273905</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7555,25 +7555,25 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7600,7 +7600,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797189</v>
@@ -7807,28 +7807,28 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931275</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547835</v>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>135.0615335795965</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>95.28760803839072</v>
       </c>
       <c r="R3" t="n">
-        <v>5.747744270113685</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>296.3356618821742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>48.0814842140681</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,22 +22598,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>204.6565392873045</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.0086695104302</v>
+        <v>100.9721250401202</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>52.69921602147286</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22708,22 +22708,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>132.6008596413343</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>145.4278941339734</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.62837588899012</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22759,7 +22759,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>142.1140049094631</v>
+        <v>286.2159662989849</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22768,7 +22768,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671011886</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>112.9792378643585</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>83.2711496294427</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>75.37549921168781</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>40.30478226780102</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23704,16 +23704,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,16 +23893,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>121.3563835367929</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194272</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856556</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>62.3554390986487</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>62.35543909864975</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>216.1389255780005</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>144.6341900408528</v>
+        <v>65.54986409393055</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-1.890132622649594e-13</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>82889.17417537625</v>
+        <v>82889.17417537617</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
@@ -26332,7 +26332,7 @@
         <v>100893.3249612508</v>
       </c>
       <c r="I2" t="n">
-        <v>100893.3249612507</v>
+        <v>100893.3249612508</v>
       </c>
       <c r="J2" t="n">
         <v>100893.3249612508</v>
@@ -26344,7 +26344,7 @@
         <v>102630.2212330355</v>
       </c>
       <c r="M2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="N2" t="n">
         <v>102630.2212330354</v>
@@ -26353,7 +26353,7 @@
         <v>102630.2212330354</v>
       </c>
       <c r="P2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1271067.297476341</v>
+        <v>1271067.29747634</v>
       </c>
       <c r="C3" t="n">
-        <v>54832.77288023804</v>
+        <v>54832.77288023879</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>204074.6584503629</v>
+        <v>204074.6584503626</v>
       </c>
       <c r="K3" t="n">
-        <v>32664.34410594287</v>
+        <v>32664.34410594314</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363179</v>
+        <v>19427.71799363178</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14452.78963551402</v>
+        <v>14452.78963551404</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815716</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.01098815714</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680575</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="F4" t="n">
+        <v>11776.97621680582</v>
+      </c>
+      <c r="G4" t="n">
+        <v>11776.97621680584</v>
+      </c>
+      <c r="H4" t="n">
         <v>11776.97621680578</v>
       </c>
-      <c r="G4" t="n">
-        <v>11776.97621680578</v>
-      </c>
-      <c r="H4" t="n">
-        <v>11776.97621680582</v>
-      </c>
       <c r="I4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680578</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="K4" t="n">
-        <v>19767.83547989927</v>
+        <v>19767.83547989929</v>
       </c>
       <c r="L4" t="n">
-        <v>19767.83547989927</v>
+        <v>19767.83547989931</v>
       </c>
       <c r="M4" t="n">
+        <v>19767.83547989928</v>
+      </c>
+      <c r="N4" t="n">
+        <v>19767.83547989928</v>
+      </c>
+      <c r="O4" t="n">
+        <v>19767.83547989929</v>
+      </c>
+      <c r="P4" t="n">
         <v>19767.8354798993</v>
-      </c>
-      <c r="N4" t="n">
-        <v>19767.83547989929</v>
-      </c>
-      <c r="O4" t="n">
-        <v>19767.83547989928</v>
-      </c>
-      <c r="P4" t="n">
-        <v>19767.83547989929</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>103892.0286120431</v>
+        <v>103892.028612043</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1306522.941548521</v>
+        <v>-1306917.762489674</v>
       </c>
       <c r="C6" t="n">
-        <v>-151100.5031967531</v>
+        <v>-151100.5031967538</v>
       </c>
       <c r="D6" t="n">
-        <v>-96267.73031651502</v>
+        <v>-96267.73031651504</v>
       </c>
       <c r="E6" t="n">
-        <v>-337418.6428868175</v>
+        <v>-337453.3808122533</v>
       </c>
       <c r="F6" t="n">
-        <v>-12006.18107946208</v>
+        <v>-12040.91900489779</v>
       </c>
       <c r="G6" t="n">
-        <v>-12006.18107946214</v>
+        <v>-12040.91900489788</v>
       </c>
       <c r="H6" t="n">
-        <v>-12006.18107946219</v>
+        <v>-12040.91900489783</v>
       </c>
       <c r="I6" t="n">
-        <v>-12006.1810794622</v>
+        <v>-12040.91900489786</v>
       </c>
       <c r="J6" t="n">
-        <v>-216080.839529825</v>
+        <v>-216115.5774552605</v>
       </c>
       <c r="K6" t="n">
-        <v>-52966.07420672206</v>
+        <v>-52966.07420672237</v>
       </c>
       <c r="L6" t="n">
-        <v>-20301.73010077921</v>
+        <v>-20301.73010077924</v>
       </c>
       <c r="M6" t="n">
         <v>-105356.7580362911</v>
@@ -26558,7 +26558,7 @@
         <v>-20301.73010077924</v>
       </c>
       <c r="O6" t="n">
-        <v>-20301.73010077927</v>
+        <v>-20301.73010077924</v>
       </c>
       <c r="P6" t="n">
         <v>-39729.44809441103</v>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203973</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1047.807751310266</v>
+        <v>1047.807751310265</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>779.9707176559095</v>
+        <v>779.9707176559089</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
@@ -26799,10 +26799,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099649</v>
@@ -26811,13 +26811,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1047.807751310266</v>
+        <v>1047.807751310265</v>
       </c>
       <c r="C3" t="n">
-        <v>41.96894928303254</v>
+        <v>41.968949283033</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>779.9707176559095</v>
+        <v>779.9707176559089</v>
       </c>
       <c r="C4" t="n">
-        <v>51.43073774638299</v>
+        <v>51.43073774638401</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>779.9707176559098</v>
+        <v>779.9707176559089</v>
       </c>
       <c r="K4" t="n">
-        <v>51.43073774638299</v>
+        <v>51.43073774638401</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>779.9707176559095</v>
+        <v>779.9707176559089</v>
       </c>
       <c r="K4" t="n">
-        <v>51.43073774638299</v>
+        <v>51.43073774638401</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>294.2970375986339</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>112.2198925856337</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27780,16 +27780,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>69.13423640866826</v>
+        <v>8.837656524467405</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>328.3173099230218</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>23.92316891695219</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,16 +28068,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>217.3613855895027</v>
       </c>
       <c r="W10" t="n">
-        <v>235.826077776307</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-8.44124770082999e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-1.456891021138313e-12</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28293,7 +28293,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>2.799538378894795e-12</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-4.182960467056043e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29104,7 +29104,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="24">
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="32">
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="35">
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.212292467578955</v>
+        <v>4.212292467578953</v>
       </c>
       <c r="H2" t="n">
-        <v>43.13914023359298</v>
+        <v>43.13914023359296</v>
       </c>
       <c r="I2" t="n">
-        <v>162.3944053563378</v>
+        <v>162.3944053563377</v>
       </c>
       <c r="J2" t="n">
-        <v>357.5130578201797</v>
+        <v>357.5130578201795</v>
       </c>
       <c r="K2" t="n">
-        <v>535.8193979727969</v>
+        <v>535.8193979727967</v>
       </c>
       <c r="L2" t="n">
-        <v>664.7313435774664</v>
+        <v>664.7313435774662</v>
       </c>
       <c r="M2" t="n">
-        <v>739.6416997477736</v>
+        <v>739.6416997477734</v>
       </c>
       <c r="N2" t="n">
-        <v>751.6098757212824</v>
+        <v>751.6098757212822</v>
       </c>
       <c r="O2" t="n">
-        <v>709.7238924967942</v>
+        <v>709.7238924967938</v>
       </c>
       <c r="P2" t="n">
-        <v>605.7329222034386</v>
+        <v>605.7329222034383</v>
       </c>
       <c r="Q2" t="n">
-        <v>454.8801982082671</v>
+        <v>454.880198208267</v>
       </c>
       <c r="R2" t="n">
-        <v>264.6004167165568</v>
+        <v>264.6004167165567</v>
       </c>
       <c r="S2" t="n">
-        <v>95.98761460495552</v>
+        <v>95.98761460495548</v>
       </c>
       <c r="T2" t="n">
         <v>18.43931027682688</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3369833974063163</v>
+        <v>0.3369833974063162</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.253775163195666</v>
+        <v>2.253775163195665</v>
       </c>
       <c r="H3" t="n">
-        <v>21.76672328665288</v>
+        <v>21.76672328665287</v>
       </c>
       <c r="I3" t="n">
-        <v>77.59708346967535</v>
+        <v>77.59708346967533</v>
       </c>
       <c r="J3" t="n">
         <v>212.9323280280607</v>
       </c>
       <c r="K3" t="n">
-        <v>363.9352639621704</v>
+        <v>363.9352639621702</v>
       </c>
       <c r="L3" t="n">
-        <v>489.355874798252</v>
+        <v>489.3558747982518</v>
       </c>
       <c r="M3" t="n">
-        <v>571.0552244640947</v>
+        <v>571.0552244640945</v>
       </c>
       <c r="N3" t="n">
-        <v>586.1693570278062</v>
+        <v>586.1693570278059</v>
       </c>
       <c r="O3" t="n">
-        <v>536.2304442012074</v>
+        <v>536.2304442012072</v>
       </c>
       <c r="P3" t="n">
-        <v>430.3722063825128</v>
+        <v>430.3722063825126</v>
       </c>
       <c r="Q3" t="n">
-        <v>287.6924225861696</v>
+        <v>287.6924225861695</v>
       </c>
       <c r="R3" t="n">
-        <v>139.9317596938503</v>
+        <v>139.9317596938502</v>
       </c>
       <c r="S3" t="n">
-        <v>41.86288515848087</v>
+        <v>41.86288515848086</v>
       </c>
       <c r="T3" t="n">
-        <v>9.084295504284283</v>
+        <v>9.084295504284277</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1482746817891886</v>
+        <v>0.1482746817891885</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.889489387608676</v>
+        <v>1.889489387608675</v>
       </c>
       <c r="H4" t="n">
-        <v>16.79927837346624</v>
+        <v>16.79927837346623</v>
       </c>
       <c r="I4" t="n">
-        <v>56.82209903826819</v>
+        <v>56.82209903826817</v>
       </c>
       <c r="J4" t="n">
-        <v>133.5868997039334</v>
+        <v>133.5868997039333</v>
       </c>
       <c r="K4" t="n">
-        <v>219.5243124876261</v>
+        <v>219.524312487626</v>
       </c>
       <c r="L4" t="n">
-        <v>280.9155404086572</v>
+        <v>280.915540408657</v>
       </c>
       <c r="M4" t="n">
-        <v>296.1860500957854</v>
+        <v>296.1860500957853</v>
       </c>
       <c r="N4" t="n">
-        <v>289.1434078328805</v>
+        <v>289.1434078328804</v>
       </c>
       <c r="O4" t="n">
-        <v>267.0707363503609</v>
+        <v>267.0707363503608</v>
       </c>
       <c r="P4" t="n">
-        <v>228.5251528431438</v>
+        <v>228.5251528431436</v>
       </c>
       <c r="Q4" t="n">
         <v>158.2189704478501</v>
       </c>
       <c r="R4" t="n">
-        <v>84.95831373738643</v>
+        <v>84.9583137373864</v>
       </c>
       <c r="S4" t="n">
-        <v>32.92864687314391</v>
+        <v>32.9286468731439</v>
       </c>
       <c r="T4" t="n">
-        <v>8.073272837964339</v>
+        <v>8.073272837964335</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1030630575059279</v>
+        <v>0.1030630575059278</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31847,10 +31847,10 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>339.9772972286967</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>359.7096985496632</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
@@ -32075,22 +32075,22 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>734.2678383622658</v>
+        <v>339.9772972286967</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214699</v>
@@ -32099,7 +32099,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32503,7 +32503,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,25 +32549,25 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,7 +32576,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32643,7 +32643,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>173.3851399586643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,31 +33725,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159414</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>732.4825987614911</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>426.9501404413636</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>176.4671532934934</v>
+        <v>176.4671532934932</v>
       </c>
       <c r="K2" t="n">
-        <v>315.7295469278163</v>
+        <v>315.7295469278161</v>
       </c>
       <c r="L2" t="n">
-        <v>428.9649286074792</v>
+        <v>428.964928607479</v>
       </c>
       <c r="M2" t="n">
-        <v>509.2954665205009</v>
+        <v>509.2954665205007</v>
       </c>
       <c r="N2" t="n">
-        <v>522.1968121246914</v>
+        <v>522.1968121246912</v>
       </c>
       <c r="O2" t="n">
-        <v>479.6256810751074</v>
+        <v>479.6256810751071</v>
       </c>
       <c r="P2" t="n">
-        <v>374.4999264481691</v>
+        <v>374.4999264481688</v>
       </c>
       <c r="Q2" t="n">
-        <v>232.5745083338176</v>
+        <v>232.5745083338175</v>
       </c>
       <c r="R2" t="n">
-        <v>49.01487890242464</v>
+        <v>49.01487890242453</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>86.09470136139404</v>
+        <v>86.09470136139396</v>
       </c>
       <c r="K3" t="n">
-        <v>361.1553585674079</v>
+        <v>226.0938249878112</v>
       </c>
       <c r="L3" t="n">
-        <v>350.8014950183778</v>
+        <v>350.8014950183776</v>
       </c>
       <c r="M3" t="n">
-        <v>428.9211905420764</v>
+        <v>428.9211905420762</v>
       </c>
       <c r="N3" t="n">
-        <v>454.8276449444729</v>
+        <v>454.8276449444726</v>
       </c>
       <c r="O3" t="n">
-        <v>393.634199756763</v>
+        <v>393.6341997567628</v>
       </c>
       <c r="P3" t="n">
-        <v>296.3977989681825</v>
+        <v>296.3977989681824</v>
       </c>
       <c r="Q3" t="n">
-        <v>147.7106485001481</v>
+        <v>242.9982565385387</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>39.77392554120708</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>40.22771958726059</v>
+        <v>40.22771958726054</v>
       </c>
       <c r="K4" t="n">
-        <v>197.2548206617433</v>
+        <v>197.2548206617431</v>
       </c>
       <c r="L4" t="n">
-        <v>308.5055656689733</v>
+        <v>308.5055656689732</v>
       </c>
       <c r="M4" t="n">
-        <v>335.769927057626</v>
+        <v>335.7699270576259</v>
       </c>
       <c r="N4" t="n">
-        <v>333.2755802121092</v>
+        <v>333.275580212109</v>
       </c>
       <c r="O4" t="n">
-        <v>291.6558642644006</v>
+        <v>291.6558642644005</v>
       </c>
       <c r="P4" t="n">
-        <v>225.8037121080372</v>
+        <v>225.8037121080371</v>
       </c>
       <c r="Q4" t="n">
-        <v>72.05692719615574</v>
+        <v>72.05692719615568</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35495,10 +35495,10 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>197.8432633066783</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402476</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071396</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35814,7 +35814,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295334</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
         <v>394.3420143191315</v>
@@ -36288,13 +36288,13 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>31.25110603664601</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,16 +36513,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295337</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,19 +36990,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,16 +37151,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37233,13 +37233,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,16 +37388,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,16 +37625,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>590.3485648394727</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
